--- a/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
+++ b/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_20_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76D0F19-5F1E-4A83-A5CE-D0BEFA7E6C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD58B4-00AB-4F6D-94BA-10AD4949EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D62F6CD5-FDA1-418C-BA58-58FB42B69123}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D62F6CD5-FDA1-418C-BA58-58FB42B69123}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>Start Date</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>https://cloud1.rpsconsulting.in/console/#</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -502,15 +505,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,6 +518,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE7384-F0EF-44FD-8C5D-315275B7A1AB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,15 +883,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1014,7 +1017,9 @@
       <c r="B12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="5"/>
@@ -1028,7 +1033,9 @@
       <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="5"/>
@@ -1042,7 +1049,9 @@
       <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="5"/>
@@ -1056,7 +1065,9 @@
       <c r="B15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="5"/>
@@ -1070,7 +1081,9 @@
       <c r="B16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="5"/>
@@ -1084,7 +1097,9 @@
       <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="5"/>
@@ -1098,7 +1113,9 @@
       <c r="B18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="5"/>
@@ -1112,7 +1129,9 @@
       <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="5"/>
@@ -1126,7 +1145,9 @@
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="14"/>
+      <c r="C20" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="5"/>
@@ -1140,7 +1161,9 @@
       <c r="B21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="5"/>
@@ -1180,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDA3554-8D55-4DDF-9555-1468A3C1FE04}">
   <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1193,162 +1216,162 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="22" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="25" t="s">
         <v>29</v>
       </c>
     </row>

--- a/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
+++ b/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_20_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD58B4-00AB-4F6D-94BA-10AD4949EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0F3BA-3ED1-4A2F-81BD-612223102CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D62F6CD5-FDA1-418C-BA58-58FB42B69123}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Start Date</t>
   </si>
@@ -866,7 +866,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,7 +1020,9 @@
       <c r="C12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1036,7 +1038,9 @@
       <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1052,7 +1056,9 @@
       <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1068,7 +1074,9 @@
       <c r="C15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1084,7 +1092,9 @@
       <c r="C16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1100,7 +1110,9 @@
       <c r="C17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1116,7 +1128,9 @@
       <c r="C18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="14"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1132,7 +1146,9 @@
       <c r="C19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1148,7 +1164,9 @@
       <c r="C20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="14"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1164,7 +1182,9 @@
       <c r="C21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>

--- a/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
+++ b/25MMS4129-CISCO-US_Splunk_20-22 Jan'26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\CISCO_SPLK_20_01_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF0F3BA-3ED1-4A2F-81BD-612223102CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99EC7CD-EFCB-4CD0-95E2-5DFE5F2A5BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D62F6CD5-FDA1-418C-BA58-58FB42B69123}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
   <si>
     <t>Start Date</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1026,9 @@
       <c r="D12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -1041,7 +1046,9 @@
       <c r="D13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1059,7 +1066,9 @@
       <c r="D14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1077,7 +1086,9 @@
       <c r="D15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1095,7 +1106,9 @@
       <c r="D16" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1113,7 +1126,9 @@
       <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1131,7 +1146,9 @@
       <c r="D18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1149,7 +1166,9 @@
       <c r="D19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1167,7 +1186,9 @@
       <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1185,7 +1206,9 @@
       <c r="D21" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
